--- a/RPGGame/RPGGame/proto/xls/item.xlsx
+++ b/RPGGame/RPGGame/proto/xls/item.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="12060"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="ITEM" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -30,16 +30,16 @@
     <t>string</t>
   </si>
   <si>
-    <t>id</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>type</t>
+    <t>Type</t>
   </si>
   <si>
-    <t>name</t>
+    <t>Name</t>
   </si>
   <si>
-    <t>description</t>
+    <t>Description</t>
   </si>
   <si>
     <t>编号</t>
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,8 +103,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +169,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,85 +209,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,23 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,25 +262,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,13 +310,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,19 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,37 +376,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,25 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,12 +443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,11 +471,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +534,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,30 +550,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,17 +568,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:XEV29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17732,11 +17732,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:C1 D1 E1:XFD1">
+      <formula1>"CS,S,C"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2 D2 E2:XFD2">
       <formula1>"required,optional,repeated,optional_struct,required_struct"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:C1 D1 E1:XFD1">
-      <formula1>"CS,S,C"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:C3 D3 E3:XFD3">
       <formula1>"bool,double,float,int32,uint32,int64,uint64,sint32,sint64,fixed32,fixed64,sfixed32,sfixed64,string,bytes,enum,message"</formula1>
